--- a/test-upload-excel.xlsx
+++ b/test-upload-excel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Fairuz Ummi F.</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
   </si>
 </sst>
 </file>
@@ -1018,13 +1021,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
@@ -1113,6 +1116,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1710998</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/test-upload-excel.xlsx
+++ b/test-upload-excel.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -47,7 +44,7 @@
     <t>gpa</t>
   </si>
   <si>
-    <t>Noprizal</t>
+    <t>Gegi</t>
   </si>
   <si>
     <t>Computer Science</t>
@@ -55,33 +52,17 @@
   <si>
     <t>Software Engineering</t>
   </si>
-  <si>
-    <t>Hikmatun Nazilah</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Broadcasting</t>
-  </si>
-  <si>
-    <t>Fairuz Ummi F.</t>
-  </si>
-  <si>
-    <t>Ahmad</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -686,14 +667,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,22 +999,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889"/>
-    <col min="4" max="4" width="17.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="1" max="1" width="16.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889"/>
+    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,88 +1029,22 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="B2">
+        <v>1710991</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1811002</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1810691</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="E2" s="1">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1810999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>1710998</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
